--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1469,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1588,6 +1625,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1615,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>43.45</v>
@@ -1629,6 +1667,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1656,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1695,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>43.7</v>
@@ -1709,6 +1749,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1748,6 +1789,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1789,6 +1831,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1816,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1828,6 +1871,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1867,6 +1911,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1894,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>43</v>
@@ -1908,6 +1953,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1947,6 +1993,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1974,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,6 +2033,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2013,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>43.1</v>
@@ -2021,11 +2069,12 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>1.070615034168565</v>
       </c>
     </row>
     <row r="46">
@@ -2054,18 +2103,21 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2093,10 +2145,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2105,6 +2159,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,10 +2187,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,6 +2201,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2174,7 +2232,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,6 +2243,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2210,10 +2271,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,6 +2285,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2249,10 +2313,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,6 +2327,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2288,10 +2355,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,6 +2369,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2327,10 +2397,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,6 +2411,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2366,12 +2439,14 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>43.58</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,6 +2455,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2407,10 +2483,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,6 +2497,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2451,13 +2530,18 @@
       <c r="J56" t="n">
         <v>43.7</v>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>43.1</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2488,10 +2572,19 @@
         <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>1.01100928074246</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.120915812067732</v>
       </c>
     </row>
     <row r="58">
@@ -2528,6 +2621,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2555,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2563,6 +2657,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2590,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2598,6 +2693,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2625,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2633,6 +2729,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2660,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2668,6 +2765,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2695,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2703,6 +2801,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2730,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2738,6 +2837,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2765,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2773,6 +2873,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2808,6 +2909,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2843,6 +2945,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2884,6 +2987,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2925,6 +3029,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2966,6 +3071,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,6 +3111,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,6 +3153,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3087,6 +3195,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3128,6 +3237,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3169,6 +3279,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3210,6 +3321,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3251,6 +3363,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3290,6 +3403,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3329,6 +3443,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3368,6 +3483,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3407,6 +3523,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3446,6 +3563,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3485,6 +3603,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3524,6 +3643,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3563,6 +3683,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3604,6 +3725,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3645,6 +3767,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3684,6 +3807,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3723,6 +3847,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3762,6 +3887,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3801,6 +3927,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3840,6 +3967,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3879,6 +4007,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3918,6 +4047,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3957,6 +4087,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3996,6 +4127,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4035,6 +4167,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4074,6 +4207,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4113,6 +4247,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4152,6 +4287,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4191,6 +4327,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4218,17 +4355,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1.123326959847036</v>
       </c>
     </row>
     <row r="103">
@@ -4257,18 +4395,15 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4300,14 +4435,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4339,14 +4471,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4378,14 +4507,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44.52</v>
+        <v>41.8</v>
       </c>
       <c r="C2" t="n">
-        <v>46.44</v>
+        <v>41.7</v>
       </c>
       <c r="D2" t="n">
-        <v>46.44</v>
+        <v>41.8</v>
       </c>
       <c r="E2" t="n">
-        <v>44.42</v>
+        <v>41.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2616.12</v>
+        <v>1229.9476</v>
       </c>
       <c r="G2" t="n">
-        <v>20920.56490000002</v>
+        <v>-165768.3308</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44.7</v>
+        <v>42.34</v>
       </c>
       <c r="C3" t="n">
-        <v>45.7</v>
+        <v>42.34</v>
       </c>
       <c r="D3" t="n">
-        <v>46.2</v>
+        <v>42.34</v>
       </c>
       <c r="E3" t="n">
-        <v>44.7</v>
+        <v>42.34</v>
       </c>
       <c r="F3" t="n">
-        <v>4259.8161</v>
+        <v>978</v>
       </c>
       <c r="G3" t="n">
-        <v>16660.74880000002</v>
+        <v>-164790.3308</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45.4</v>
+        <v>42.55</v>
       </c>
       <c r="C4" t="n">
-        <v>44.7</v>
+        <v>42.56</v>
       </c>
       <c r="D4" t="n">
-        <v>45.7</v>
+        <v>42.56</v>
       </c>
       <c r="E4" t="n">
-        <v>44.7</v>
+        <v>42.55</v>
       </c>
       <c r="F4" t="n">
-        <v>20372.5871</v>
+        <v>9123</v>
       </c>
       <c r="G4" t="n">
-        <v>-3711.838299999978</v>
+        <v>-155667.3308</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44.9</v>
+        <v>42.56</v>
       </c>
       <c r="C5" t="n">
-        <v>44.82</v>
+        <v>42.56</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>42.56</v>
       </c>
       <c r="E5" t="n">
-        <v>44.82</v>
+        <v>42.56</v>
       </c>
       <c r="F5" t="n">
-        <v>7729.8683</v>
+        <v>412.7854</v>
       </c>
       <c r="G5" t="n">
-        <v>4018.030000000022</v>
+        <v>-155667.3308</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.9</v>
+        <v>42.55</v>
       </c>
       <c r="C6" t="n">
-        <v>44.9</v>
+        <v>42.56</v>
       </c>
       <c r="D6" t="n">
-        <v>44.9</v>
+        <v>42.56</v>
       </c>
       <c r="E6" t="n">
-        <v>44.9</v>
+        <v>42.55</v>
       </c>
       <c r="F6" t="n">
-        <v>2891.0454</v>
+        <v>5451.0218</v>
       </c>
       <c r="G6" t="n">
-        <v>6909.075400000022</v>
+        <v>-155667.3308</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44.9</v>
+        <v>42.59</v>
       </c>
       <c r="C7" t="n">
-        <v>45.61</v>
+        <v>42.6</v>
       </c>
       <c r="D7" t="n">
-        <v>45.61</v>
+        <v>42.6</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9</v>
+        <v>42.59</v>
       </c>
       <c r="F7" t="n">
-        <v>30076.73515928524</v>
+        <v>3700</v>
       </c>
       <c r="G7" t="n">
-        <v>36985.81055928526</v>
+        <v>-151967.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K7" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.9</v>
+        <v>41.9</v>
       </c>
       <c r="C8" t="n">
-        <v>45.15</v>
+        <v>43.09</v>
       </c>
       <c r="D8" t="n">
-        <v>46.89</v>
+        <v>43.1</v>
       </c>
       <c r="E8" t="n">
-        <v>44.9</v>
+        <v>40.65</v>
       </c>
       <c r="F8" t="n">
-        <v>30689.74754743016</v>
+        <v>62422.091</v>
       </c>
       <c r="G8" t="n">
-        <v>6296.063011855098</v>
+        <v>-89545.2398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>45.15</v>
+        <v>42.28</v>
       </c>
       <c r="C9" t="n">
-        <v>45.15</v>
+        <v>42.28</v>
       </c>
       <c r="D9" t="n">
-        <v>46.7</v>
+        <v>42.28</v>
       </c>
       <c r="E9" t="n">
-        <v>45.15</v>
+        <v>42.28</v>
       </c>
       <c r="F9" t="n">
-        <v>26184.066</v>
+        <v>4656</v>
       </c>
       <c r="G9" t="n">
-        <v>6296.063011855098</v>
+        <v>-94201.2398</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>42.09</v>
       </c>
       <c r="C10" t="n">
-        <v>45.15</v>
+        <v>41.8</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>42.09</v>
       </c>
       <c r="E10" t="n">
-        <v>45.15</v>
+        <v>41.64</v>
       </c>
       <c r="F10" t="n">
-        <v>62267.61230823545</v>
+        <v>11287</v>
       </c>
       <c r="G10" t="n">
-        <v>6296.063011855098</v>
+        <v>-105488.2398</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46.78</v>
+        <v>41.77</v>
       </c>
       <c r="C11" t="n">
-        <v>46.1</v>
+        <v>41.9</v>
       </c>
       <c r="D11" t="n">
-        <v>46.78</v>
+        <v>41.98</v>
       </c>
       <c r="E11" t="n">
-        <v>45.15</v>
+        <v>41.75</v>
       </c>
       <c r="F11" t="n">
-        <v>24602.0725</v>
+        <v>13943</v>
       </c>
       <c r="G11" t="n">
-        <v>30898.1355118551</v>
+        <v>-91545.2398</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45.4</v>
+        <v>42.1</v>
       </c>
       <c r="C12" t="n">
-        <v>45.6</v>
+        <v>42.1</v>
       </c>
       <c r="D12" t="n">
-        <v>45.6</v>
+        <v>42.1</v>
       </c>
       <c r="E12" t="n">
-        <v>45.4</v>
+        <v>42.08</v>
       </c>
       <c r="F12" t="n">
-        <v>2240</v>
+        <v>4157</v>
       </c>
       <c r="G12" t="n">
-        <v>28658.1355118551</v>
+        <v>-87388.2398</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +910,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.82</v>
+        <v>42.19</v>
       </c>
       <c r="C13" t="n">
-        <v>45.7</v>
+        <v>41.5</v>
       </c>
       <c r="D13" t="n">
-        <v>45.7</v>
+        <v>42.29</v>
       </c>
       <c r="E13" t="n">
-        <v>44.7</v>
+        <v>41.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2755.7709</v>
+        <v>6961.2418</v>
       </c>
       <c r="G13" t="n">
-        <v>31413.9064118551</v>
+        <v>-94349.4816</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44.21</v>
+        <v>42.3</v>
       </c>
       <c r="C14" t="n">
-        <v>45.1</v>
+        <v>42.9</v>
       </c>
       <c r="D14" t="n">
-        <v>45.1</v>
+        <v>42.9</v>
       </c>
       <c r="E14" t="n">
-        <v>44.1</v>
+        <v>42.3</v>
       </c>
       <c r="F14" t="n">
-        <v>3507.4559</v>
+        <v>411</v>
       </c>
       <c r="G14" t="n">
-        <v>27906.4505118551</v>
+        <v>-93938.4816</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +998,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1</v>
+        <v>42.7</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1</v>
+        <v>42.7</v>
       </c>
       <c r="E15" t="n">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="F15" t="n">
-        <v>7896.7556</v>
+        <v>287</v>
       </c>
       <c r="G15" t="n">
-        <v>20009.69491185509</v>
+        <v>-94225.4816</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1042,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>41.61</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>42.86</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>42.97</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>41.61</v>
       </c>
       <c r="F16" t="n">
-        <v>25738.9536</v>
+        <v>76018.41620000001</v>
       </c>
       <c r="G16" t="n">
-        <v>20009.69491185509</v>
+        <v>-18207.06539999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1066,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1084,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.3</v>
+        <v>42.76</v>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>42.68</v>
       </c>
       <c r="D17" t="n">
-        <v>45.5</v>
+        <v>42.76</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>42.68</v>
       </c>
       <c r="F17" t="n">
-        <v>26179.8473</v>
+        <v>4811.6674</v>
       </c>
       <c r="G17" t="n">
-        <v>20009.69491185509</v>
+        <v>-23018.73279999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1108,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.1</v>
+        <v>42.8</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>42.8</v>
       </c>
       <c r="D18" t="n">
-        <v>45.3</v>
+        <v>42.8</v>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>42.8</v>
       </c>
       <c r="F18" t="n">
-        <v>14003.6518</v>
+        <v>1144</v>
       </c>
       <c r="G18" t="n">
-        <v>20009.69491185509</v>
+        <v>-21874.73279999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1168,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.9</v>
+        <v>42.59</v>
       </c>
       <c r="C19" t="n">
-        <v>44</v>
+        <v>42.6</v>
       </c>
       <c r="D19" t="n">
-        <v>44.9</v>
+        <v>42.6</v>
       </c>
       <c r="E19" t="n">
-        <v>44</v>
+        <v>42.5</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>2633</v>
       </c>
       <c r="G19" t="n">
-        <v>20009.69491185509</v>
+        <v>-24507.73279999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1192,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1210,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.3</v>
+        <v>42.9</v>
       </c>
       <c r="C20" t="n">
-        <v>45.3</v>
+        <v>42.9</v>
       </c>
       <c r="D20" t="n">
-        <v>45.6</v>
+        <v>42.9</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>42.9</v>
       </c>
       <c r="F20" t="n">
-        <v>23352.9715</v>
+        <v>985.72</v>
       </c>
       <c r="G20" t="n">
-        <v>43362.6664118551</v>
+        <v>-23522.01279999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1252,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>42.9</v>
       </c>
       <c r="C21" t="n">
-        <v>44.1</v>
+        <v>42.9</v>
       </c>
       <c r="D21" t="n">
-        <v>45.3</v>
+        <v>42.9</v>
       </c>
       <c r="E21" t="n">
-        <v>44.1</v>
+        <v>42.9</v>
       </c>
       <c r="F21" t="n">
-        <v>3916.0292</v>
+        <v>167.604</v>
       </c>
       <c r="G21" t="n">
-        <v>39446.6372118551</v>
+        <v>-23522.01279999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1276,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1294,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.8</v>
+        <v>42.89</v>
       </c>
       <c r="C22" t="n">
-        <v>45</v>
+        <v>42.89</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>42.89</v>
       </c>
       <c r="E22" t="n">
-        <v>44.8</v>
+        <v>42.89</v>
       </c>
       <c r="F22" t="n">
-        <v>165.424</v>
+        <v>1170.7556</v>
       </c>
       <c r="G22" t="n">
-        <v>39612.0612118551</v>
+        <v>-24692.76839999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1318,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1336,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44.9</v>
+        <v>42.96</v>
       </c>
       <c r="C23" t="n">
-        <v>45.7</v>
+        <v>43.35</v>
       </c>
       <c r="D23" t="n">
-        <v>45.7</v>
+        <v>43.35</v>
       </c>
       <c r="E23" t="n">
-        <v>44.8</v>
+        <v>42.96</v>
       </c>
       <c r="F23" t="n">
-        <v>5914.515</v>
+        <v>13017.0194</v>
       </c>
       <c r="G23" t="n">
-        <v>45526.5762118551</v>
+        <v>-11675.74899999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1360,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45.6</v>
+        <v>43.35</v>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>43.36</v>
       </c>
       <c r="D24" t="n">
-        <v>46.4</v>
+        <v>43.36</v>
       </c>
       <c r="E24" t="n">
-        <v>44.2</v>
+        <v>41.6</v>
       </c>
       <c r="F24" t="n">
-        <v>31826.7512</v>
+        <v>17436.56</v>
       </c>
       <c r="G24" t="n">
-        <v>77353.32741185511</v>
+        <v>5760.811000000011</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1420,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.1</v>
+        <v>43.57</v>
       </c>
       <c r="C25" t="n">
-        <v>45.7</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>45.7</v>
+        <v>44.1</v>
       </c>
       <c r="E25" t="n">
-        <v>45.1</v>
+        <v>43.36</v>
       </c>
       <c r="F25" t="n">
-        <v>2375.4182</v>
+        <v>106507.9128</v>
       </c>
       <c r="G25" t="n">
-        <v>74977.90921185511</v>
+        <v>112268.7238</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="K25" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1464,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45.3</v>
+        <v>44.7</v>
       </c>
       <c r="C26" t="n">
-        <v>45.7</v>
+        <v>43.9</v>
       </c>
       <c r="D26" t="n">
-        <v>45.7</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>45.3</v>
+        <v>43.41</v>
       </c>
       <c r="F26" t="n">
-        <v>3000</v>
+        <v>100573.3219</v>
       </c>
       <c r="G26" t="n">
-        <v>74977.90921185511</v>
+        <v>11695.40190000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1506,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45.3</v>
+        <v>43.8</v>
       </c>
       <c r="C27" t="n">
-        <v>44.5</v>
+        <v>46.4</v>
       </c>
       <c r="D27" t="n">
-        <v>45.3</v>
+        <v>46.4</v>
       </c>
       <c r="E27" t="n">
-        <v>44.5</v>
+        <v>43.8</v>
       </c>
       <c r="F27" t="n">
-        <v>7835.1159</v>
+        <v>3409.67</v>
       </c>
       <c r="G27" t="n">
-        <v>67142.7933118551</v>
+        <v>15105.07190000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1548,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44.4</v>
+        <v>46.4</v>
       </c>
       <c r="C28" t="n">
-        <v>44.4</v>
+        <v>46.47</v>
       </c>
       <c r="D28" t="n">
-        <v>44.5</v>
+        <v>46.47</v>
       </c>
       <c r="E28" t="n">
-        <v>44.11</v>
+        <v>46.4</v>
       </c>
       <c r="F28" t="n">
-        <v>31396.4721</v>
+        <v>3493</v>
       </c>
       <c r="G28" t="n">
-        <v>35746.3212118551</v>
+        <v>18598.07190000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1590,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.4</v>
+        <v>45.3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="D29" t="n">
-        <v>44.45</v>
+        <v>45.5</v>
       </c>
       <c r="E29" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="F29" t="n">
-        <v>1623.9795</v>
+        <v>28983.7054</v>
       </c>
       <c r="G29" t="n">
-        <v>35746.3212118551</v>
+        <v>-10385.63349999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1632,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.2</v>
+        <v>45.3</v>
       </c>
       <c r="C30" t="n">
-        <v>43.9</v>
+        <v>46.89</v>
       </c>
       <c r="D30" t="n">
-        <v>44.2</v>
+        <v>46.89</v>
       </c>
       <c r="E30" t="n">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="F30" t="n">
-        <v>40392.1852</v>
+        <v>33922.3184</v>
       </c>
       <c r="G30" t="n">
-        <v>-4645.863988144898</v>
+        <v>23536.68490000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1674,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.9</v>
+        <v>44.52</v>
       </c>
       <c r="C31" t="n">
-        <v>43.9</v>
+        <v>46.44</v>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>46.44</v>
       </c>
       <c r="E31" t="n">
-        <v>43.9</v>
+        <v>44.42</v>
       </c>
       <c r="F31" t="n">
-        <v>25115</v>
+        <v>2616.12</v>
       </c>
       <c r="G31" t="n">
-        <v>-4645.863988144898</v>
+        <v>20920.56490000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1716,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="C32" t="n">
-        <v>43.9</v>
+        <v>45.7</v>
       </c>
       <c r="D32" t="n">
-        <v>43.9</v>
+        <v>46.2</v>
       </c>
       <c r="E32" t="n">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="F32" t="n">
-        <v>3562</v>
+        <v>4259.8161</v>
       </c>
       <c r="G32" t="n">
-        <v>-4645.863988144898</v>
+        <v>16660.74880000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1758,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43.99</v>
+        <v>45.4</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="D33" t="n">
-        <v>44</v>
+        <v>45.7</v>
       </c>
       <c r="E33" t="n">
-        <v>43.99</v>
+        <v>44.7</v>
       </c>
       <c r="F33" t="n">
-        <v>508</v>
+        <v>20372.5871</v>
       </c>
       <c r="G33" t="n">
-        <v>-4137.863988144898</v>
+        <v>-3711.838299999978</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,36 +1800,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>43.99</v>
+        <v>44.9</v>
       </c>
       <c r="C34" t="n">
-        <v>43.45</v>
+        <v>44.82</v>
       </c>
       <c r="D34" t="n">
-        <v>44.35</v>
+        <v>46</v>
       </c>
       <c r="E34" t="n">
-        <v>43.45</v>
+        <v>44.82</v>
       </c>
       <c r="F34" t="n">
-        <v>23884.1044</v>
+        <v>7729.8683</v>
       </c>
       <c r="G34" t="n">
-        <v>-28021.9683881449</v>
+        <v>4018.030000000022</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>44</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1632,33 +1842,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43.45</v>
+        <v>44.9</v>
       </c>
       <c r="C35" t="n">
-        <v>43.7</v>
+        <v>44.9</v>
       </c>
       <c r="D35" t="n">
-        <v>44.35</v>
+        <v>44.9</v>
       </c>
       <c r="E35" t="n">
-        <v>43.45</v>
+        <v>44.9</v>
       </c>
       <c r="F35" t="n">
-        <v>30201.1655</v>
+        <v>2891.0454</v>
       </c>
       <c r="G35" t="n">
-        <v>2179.197111855101</v>
+        <v>6909.075400000022</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,31 +1884,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.8</v>
+        <v>44.9</v>
       </c>
       <c r="C36" t="n">
-        <v>43.7</v>
+        <v>45.61</v>
       </c>
       <c r="D36" t="n">
-        <v>43.8</v>
+        <v>45.61</v>
       </c>
       <c r="E36" t="n">
-        <v>43.7</v>
+        <v>44.9</v>
       </c>
       <c r="F36" t="n">
-        <v>13691.0827</v>
+        <v>30076.73515928524</v>
       </c>
       <c r="G36" t="n">
-        <v>2179.197111855101</v>
+        <v>36985.81055928526</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,33 +1926,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.3</v>
+        <v>44.9</v>
       </c>
       <c r="C37" t="n">
-        <v>44.3</v>
+        <v>45.15</v>
       </c>
       <c r="D37" t="n">
-        <v>44.3</v>
+        <v>46.89</v>
       </c>
       <c r="E37" t="n">
-        <v>44.3</v>
+        <v>44.9</v>
       </c>
       <c r="F37" t="n">
-        <v>25</v>
+        <v>30689.74754743016</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.197111855101</v>
+        <v>6296.063011855098</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1756,22 +1968,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.7</v>
+        <v>45.15</v>
       </c>
       <c r="C38" t="n">
-        <v>43.33</v>
+        <v>45.15</v>
       </c>
       <c r="D38" t="n">
-        <v>43.7</v>
+        <v>46.7</v>
       </c>
       <c r="E38" t="n">
-        <v>43.33</v>
+        <v>45.15</v>
       </c>
       <c r="F38" t="n">
-        <v>22570.2636</v>
+        <v>26184.066</v>
       </c>
       <c r="G38" t="n">
-        <v>-20366.0664881449</v>
+        <v>6296.063011855098</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1780,54 +1992,52 @@
         <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>41.7</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1.07773381294964</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.020623501199041</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43.33</v>
+        <v>46</v>
       </c>
       <c r="C39" t="n">
-        <v>44.17</v>
+        <v>45.15</v>
       </c>
       <c r="D39" t="n">
-        <v>44.2</v>
+        <v>47</v>
       </c>
       <c r="E39" t="n">
-        <v>43.33</v>
+        <v>45.15</v>
       </c>
       <c r="F39" t="n">
-        <v>12111</v>
+        <v>62267.61230823545</v>
       </c>
       <c r="G39" t="n">
-        <v>-8255.066488144897</v>
+        <v>6296.063011855098</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1838,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44.07</v>
+        <v>46.78</v>
       </c>
       <c r="C40" t="n">
-        <v>43.5</v>
+        <v>46.1</v>
       </c>
       <c r="D40" t="n">
-        <v>44.07</v>
+        <v>46.78</v>
       </c>
       <c r="E40" t="n">
-        <v>43.5</v>
+        <v>45.15</v>
       </c>
       <c r="F40" t="n">
-        <v>4716.5584</v>
+        <v>24602.0725</v>
       </c>
       <c r="G40" t="n">
-        <v>-12971.6248881449</v>
+        <v>30898.1355118551</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1863,11 +2073,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1878,36 +2084,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43.8</v>
+        <v>45.4</v>
       </c>
       <c r="C41" t="n">
-        <v>43</v>
+        <v>45.6</v>
       </c>
       <c r="D41" t="n">
-        <v>44.09</v>
+        <v>45.6</v>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>45.4</v>
       </c>
       <c r="F41" t="n">
-        <v>27327.9125</v>
+        <v>2240</v>
       </c>
       <c r="G41" t="n">
-        <v>-40299.5373881449</v>
+        <v>28658.1355118551</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1918,38 +2120,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>43</v>
+        <v>44.82</v>
       </c>
       <c r="C42" t="n">
-        <v>41.93</v>
+        <v>45.7</v>
       </c>
       <c r="D42" t="n">
-        <v>43.78</v>
+        <v>45.7</v>
       </c>
       <c r="E42" t="n">
-        <v>41.93</v>
+        <v>44.7</v>
       </c>
       <c r="F42" t="n">
-        <v>22440.5973</v>
+        <v>2755.7709</v>
       </c>
       <c r="G42" t="n">
-        <v>-62740.1346881449</v>
+        <v>31413.9064118551</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>43</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +2156,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43.78</v>
+        <v>44.21</v>
       </c>
       <c r="C43" t="n">
-        <v>43.78</v>
+        <v>45.1</v>
       </c>
       <c r="D43" t="n">
-        <v>43.78</v>
+        <v>45.1</v>
       </c>
       <c r="E43" t="n">
-        <v>43.78</v>
+        <v>44.1</v>
       </c>
       <c r="F43" t="n">
-        <v>15360.0159</v>
+        <v>3507.4559</v>
       </c>
       <c r="G43" t="n">
-        <v>-47380.1187881449</v>
+        <v>27906.4505118551</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1985,11 +2181,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2000,36 +2192,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>43.1</v>
+        <v>44.1</v>
       </c>
       <c r="C44" t="n">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n">
-        <v>43.1</v>
+        <v>44.1</v>
       </c>
       <c r="E44" t="n">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="F44" t="n">
-        <v>23.6979</v>
+        <v>7896.7556</v>
       </c>
       <c r="G44" t="n">
-        <v>-47403.8166881449</v>
+        <v>20009.69491185509</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2040,80 +2228,68 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43.79</v>
+        <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>43.79</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>43.79</v>
+        <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>43.79</v>
+        <v>44</v>
       </c>
       <c r="F45" t="n">
-        <v>8223</v>
+        <v>25738.9536</v>
       </c>
       <c r="G45" t="n">
-        <v>-39180.8166881449</v>
+        <v>20009.69491185509</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>1.070615034168565</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>43.21</v>
+        <v>45.3</v>
       </c>
       <c r="C46" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n">
-        <v>43.6</v>
+        <v>45.5</v>
       </c>
       <c r="E46" t="n">
-        <v>41.84</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
-        <v>50753.2746</v>
+        <v>26179.8473</v>
       </c>
       <c r="G46" t="n">
-        <v>-89934.0912881449</v>
+        <v>20009.69491185509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2124,38 +2300,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="C47" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>43.6</v>
+        <v>45.3</v>
       </c>
       <c r="E47" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="F47" t="n">
-        <v>78</v>
+        <v>14003.6518</v>
       </c>
       <c r="G47" t="n">
-        <v>-89934.0912881449</v>
+        <v>20009.69491185509</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2336,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>42.9</v>
+        <v>44.9</v>
       </c>
       <c r="C48" t="n">
-        <v>42.09</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
       <c r="E48" t="n">
-        <v>42.09</v>
+        <v>44</v>
       </c>
       <c r="F48" t="n">
-        <v>17267.0828</v>
+        <v>62</v>
       </c>
       <c r="G48" t="n">
-        <v>-107201.1740881449</v>
+        <v>20009.69491185509</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2190,14 +2360,8 @@
         <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2208,38 +2372,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>43.6</v>
+        <v>44.3</v>
       </c>
       <c r="C49" t="n">
-        <v>43.6</v>
+        <v>45.3</v>
       </c>
       <c r="D49" t="n">
-        <v>43.7</v>
+        <v>45.6</v>
       </c>
       <c r="E49" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="F49" t="n">
-        <v>5146</v>
+        <v>23352.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>-102055.1740881449</v>
+        <v>43362.6664118551</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2250,22 +2408,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>43.6</v>
+        <v>45</v>
       </c>
       <c r="C50" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="D50" t="n">
-        <v>43.6</v>
+        <v>45.3</v>
       </c>
       <c r="E50" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="F50" t="n">
-        <v>1627</v>
+        <v>3916.0292</v>
       </c>
       <c r="G50" t="n">
-        <v>-102055.1740881449</v>
+        <v>39446.6372118551</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2274,14 +2432,8 @@
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2444,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>43.6</v>
+        <v>44.8</v>
       </c>
       <c r="C51" t="n">
-        <v>43.6</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>43.7</v>
+        <v>45</v>
       </c>
       <c r="E51" t="n">
-        <v>43.6</v>
+        <v>44.8</v>
       </c>
       <c r="F51" t="n">
-        <v>6058</v>
+        <v>165.424</v>
       </c>
       <c r="G51" t="n">
-        <v>-102055.1740881449</v>
+        <v>39612.0612118551</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2316,14 +2468,8 @@
         <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2334,22 +2480,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
       <c r="C52" t="n">
-        <v>43.6</v>
+        <v>45.7</v>
       </c>
       <c r="D52" t="n">
-        <v>43.6</v>
+        <v>45.7</v>
       </c>
       <c r="E52" t="n">
-        <v>43.6</v>
+        <v>44.8</v>
       </c>
       <c r="F52" t="n">
-        <v>400</v>
+        <v>5914.515</v>
       </c>
       <c r="G52" t="n">
-        <v>-102055.1740881449</v>
+        <v>45526.5762118551</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2358,14 +2504,8 @@
         <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2516,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>43.48</v>
+        <v>45.6</v>
       </c>
       <c r="C53" t="n">
-        <v>43.58</v>
+        <v>46</v>
       </c>
       <c r="D53" t="n">
-        <v>43.58</v>
+        <v>46.4</v>
       </c>
       <c r="E53" t="n">
-        <v>43.48</v>
+        <v>44.2</v>
       </c>
       <c r="F53" t="n">
-        <v>1642</v>
+        <v>31826.7512</v>
       </c>
       <c r="G53" t="n">
-        <v>-103697.1740881449</v>
+        <v>77353.32741185511</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2400,14 +2540,8 @@
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2418,40 +2552,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>43.06</v>
+        <v>45.1</v>
       </c>
       <c r="C54" t="n">
-        <v>43.28</v>
+        <v>45.7</v>
       </c>
       <c r="D54" t="n">
-        <v>43.29</v>
+        <v>45.7</v>
       </c>
       <c r="E54" t="n">
-        <v>43.06</v>
+        <v>45.1</v>
       </c>
       <c r="F54" t="n">
-        <v>2690</v>
+        <v>2375.4182</v>
       </c>
       <c r="G54" t="n">
-        <v>-106387.1740881449</v>
+        <v>74977.90921185511</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="K54" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2462,22 +2588,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>43.29</v>
+        <v>45.3</v>
       </c>
       <c r="C55" t="n">
-        <v>43.7</v>
+        <v>45.7</v>
       </c>
       <c r="D55" t="n">
-        <v>43.7</v>
+        <v>45.7</v>
       </c>
       <c r="E55" t="n">
-        <v>43.29</v>
+        <v>45.3</v>
       </c>
       <c r="F55" t="n">
-        <v>464</v>
+        <v>3000</v>
       </c>
       <c r="G55" t="n">
-        <v>-105923.1740881449</v>
+        <v>74977.90921185511</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2486,14 +2612,8 @@
         <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2504,40 +2624,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>43.69</v>
+        <v>45.3</v>
       </c>
       <c r="C56" t="n">
-        <v>43.68</v>
+        <v>44.5</v>
       </c>
       <c r="D56" t="n">
-        <v>43.69</v>
+        <v>45.3</v>
       </c>
       <c r="E56" t="n">
-        <v>43.68</v>
+        <v>44.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>7835.1159</v>
       </c>
       <c r="G56" t="n">
-        <v>-107923.1740881449</v>
+        <v>67142.7933118551</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2660,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>42.8</v>
+        <v>44.4</v>
       </c>
       <c r="C57" t="n">
-        <v>43.79</v>
+        <v>44.4</v>
       </c>
       <c r="D57" t="n">
-        <v>43.79</v>
+        <v>44.5</v>
       </c>
       <c r="E57" t="n">
-        <v>42.8</v>
+        <v>44.11</v>
       </c>
       <c r="F57" t="n">
-        <v>22624</v>
+        <v>31396.4721</v>
       </c>
       <c r="G57" t="n">
-        <v>-85299.17408814491</v>
+        <v>35746.3212118551</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2572,42 +2684,34 @@
         <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>1.01100928074246</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.120915812067732</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>43.49</v>
+        <v>44.4</v>
       </c>
       <c r="C58" t="n">
-        <v>43.49</v>
+        <v>44.4</v>
       </c>
       <c r="D58" t="n">
-        <v>43.49</v>
+        <v>44.45</v>
       </c>
       <c r="E58" t="n">
-        <v>43.49</v>
+        <v>44.4</v>
       </c>
       <c r="F58" t="n">
-        <v>6636.6426</v>
+        <v>1623.9795</v>
       </c>
       <c r="G58" t="n">
-        <v>-91935.81668814491</v>
+        <v>35746.3212118551</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2628,22 +2732,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>43.1</v>
+        <v>44.2</v>
       </c>
       <c r="C59" t="n">
-        <v>43.88</v>
+        <v>43.9</v>
       </c>
       <c r="D59" t="n">
-        <v>43.88</v>
+        <v>44.2</v>
       </c>
       <c r="E59" t="n">
-        <v>43.1</v>
+        <v>43.9</v>
       </c>
       <c r="F59" t="n">
-        <v>29.66</v>
+        <v>40392.1852</v>
       </c>
       <c r="G59" t="n">
-        <v>-91906.15668814491</v>
+        <v>-4645.863988144898</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2664,22 +2768,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>42.8</v>
+        <v>43.9</v>
       </c>
       <c r="C60" t="n">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="D60" t="n">
-        <v>43.2</v>
+        <v>44</v>
       </c>
       <c r="E60" t="n">
-        <v>42.8</v>
+        <v>43.9</v>
       </c>
       <c r="F60" t="n">
-        <v>5182</v>
+        <v>25115</v>
       </c>
       <c r="G60" t="n">
-        <v>-97088.15668814491</v>
+        <v>-4645.863988144898</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2700,22 +2804,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="C61" t="n">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="E61" t="n">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="F61" t="n">
-        <v>20199.3581</v>
+        <v>3562</v>
       </c>
       <c r="G61" t="n">
-        <v>-97088.15668814491</v>
+        <v>-4645.863988144898</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2736,22 +2840,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>43.19</v>
+        <v>43.99</v>
       </c>
       <c r="C62" t="n">
-        <v>43.19</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
-        <v>43.19</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>43.19</v>
+        <v>43.99</v>
       </c>
       <c r="F62" t="n">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="G62" t="n">
-        <v>-96706.15668814491</v>
+        <v>-4137.863988144898</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2772,22 +2876,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>43</v>
+        <v>43.99</v>
       </c>
       <c r="C63" t="n">
-        <v>43</v>
+        <v>43.45</v>
       </c>
       <c r="D63" t="n">
-        <v>43</v>
+        <v>44.35</v>
       </c>
       <c r="E63" t="n">
-        <v>43</v>
+        <v>43.45</v>
       </c>
       <c r="F63" t="n">
-        <v>105.2226</v>
+        <v>23884.1044</v>
       </c>
       <c r="G63" t="n">
-        <v>-96811.3792881449</v>
+        <v>-28021.9683881449</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2808,28 +2912,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>43.19</v>
+        <v>43.45</v>
       </c>
       <c r="C64" t="n">
-        <v>43.49</v>
+        <v>43.7</v>
       </c>
       <c r="D64" t="n">
-        <v>43.49</v>
+        <v>44.35</v>
       </c>
       <c r="E64" t="n">
-        <v>43.19</v>
+        <v>43.45</v>
       </c>
       <c r="F64" t="n">
-        <v>8006.392923913543</v>
+        <v>30201.1655</v>
       </c>
       <c r="G64" t="n">
-        <v>-88804.98636423136</v>
+        <v>2179.197111855101</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2844,28 +2948,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>43.8</v>
       </c>
       <c r="C65" t="n">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="D65" t="n">
-        <v>43</v>
+        <v>43.8</v>
       </c>
       <c r="E65" t="n">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="F65" t="n">
-        <v>23.25581395348837</v>
+        <v>13691.0827</v>
       </c>
       <c r="G65" t="n">
-        <v>-88828.24217818484</v>
+        <v>2179.197111855101</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2880,28 +2984,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>42.8</v>
+        <v>44.3</v>
       </c>
       <c r="C66" t="n">
-        <v>42.61</v>
+        <v>44.3</v>
       </c>
       <c r="D66" t="n">
-        <v>42.8</v>
+        <v>44.3</v>
       </c>
       <c r="E66" t="n">
-        <v>42.61</v>
+        <v>44.3</v>
       </c>
       <c r="F66" t="n">
-        <v>8029.6487</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>-96857.89087818484</v>
+        <v>2204.197111855101</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2916,22 +3020,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="C67" t="n">
-        <v>42.5</v>
+        <v>43.33</v>
       </c>
       <c r="D67" t="n">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="E67" t="n">
-        <v>42.5</v>
+        <v>43.33</v>
       </c>
       <c r="F67" t="n">
-        <v>32864.2297</v>
+        <v>22570.2636</v>
       </c>
       <c r="G67" t="n">
-        <v>-129722.1205781848</v>
+        <v>-20366.0664881449</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2952,38 +3056,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.6</v>
+        <v>43.33</v>
       </c>
       <c r="C68" t="n">
-        <v>42.5</v>
+        <v>44.17</v>
       </c>
       <c r="D68" t="n">
-        <v>42.6</v>
+        <v>44.2</v>
       </c>
       <c r="E68" t="n">
-        <v>42.5</v>
+        <v>43.33</v>
       </c>
       <c r="F68" t="n">
-        <v>2242.4611</v>
+        <v>12111</v>
       </c>
       <c r="G68" t="n">
-        <v>-129722.1205781848</v>
+        <v>-8255.066488144897</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>42.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2994,38 +3092,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>42.99</v>
+        <v>44.07</v>
       </c>
       <c r="C69" t="n">
-        <v>42.9</v>
+        <v>43.5</v>
       </c>
       <c r="D69" t="n">
-        <v>42.99</v>
+        <v>44.07</v>
       </c>
       <c r="E69" t="n">
-        <v>42.9</v>
+        <v>43.5</v>
       </c>
       <c r="F69" t="n">
-        <v>504</v>
+        <v>4716.5584</v>
       </c>
       <c r="G69" t="n">
-        <v>-129218.1205781848</v>
+        <v>-12971.6248881449</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>42.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3036,38 +3128,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>42.8</v>
+        <v>43.8</v>
       </c>
       <c r="C70" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="D70" t="n">
-        <v>42.8</v>
+        <v>44.09</v>
       </c>
       <c r="E70" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="F70" t="n">
-        <v>400</v>
+        <v>27327.9125</v>
       </c>
       <c r="G70" t="n">
-        <v>-129618.1205781848</v>
+        <v>-40299.5373881449</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>42.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +3164,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="C71" t="n">
-        <v>42.88</v>
+        <v>41.93</v>
       </c>
       <c r="D71" t="n">
-        <v>42.88</v>
+        <v>43.78</v>
       </c>
       <c r="E71" t="n">
-        <v>42.09</v>
+        <v>41.93</v>
       </c>
       <c r="F71" t="n">
-        <v>52154.7612</v>
+        <v>22440.5973</v>
       </c>
       <c r="G71" t="n">
-        <v>-77463.35937818483</v>
+        <v>-62740.1346881449</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3103,11 +3189,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3118,38 +3200,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>42.77</v>
+        <v>43.78</v>
       </c>
       <c r="C72" t="n">
-        <v>42.77</v>
+        <v>43.78</v>
       </c>
       <c r="D72" t="n">
-        <v>42.77</v>
+        <v>43.78</v>
       </c>
       <c r="E72" t="n">
-        <v>42.77</v>
+        <v>43.78</v>
       </c>
       <c r="F72" t="n">
-        <v>1139.2117</v>
+        <v>15360.0159</v>
       </c>
       <c r="G72" t="n">
-        <v>-78602.57107818483</v>
+        <v>-47380.1187881449</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>42.88</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3160,38 +3236,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>42.51</v>
+        <v>43.1</v>
       </c>
       <c r="C73" t="n">
-        <v>42.51</v>
+        <v>43.1</v>
       </c>
       <c r="D73" t="n">
-        <v>42.51</v>
+        <v>43.1</v>
       </c>
       <c r="E73" t="n">
-        <v>42.51</v>
+        <v>43.1</v>
       </c>
       <c r="F73" t="n">
-        <v>45.9559</v>
+        <v>23.6979</v>
       </c>
       <c r="G73" t="n">
-        <v>-78648.52697818483</v>
+        <v>-47403.8166881449</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>42.77</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3202,38 +3272,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.51</v>
+        <v>43.79</v>
       </c>
       <c r="C74" t="n">
-        <v>42.99</v>
+        <v>43.79</v>
       </c>
       <c r="D74" t="n">
-        <v>42.99</v>
+        <v>43.79</v>
       </c>
       <c r="E74" t="n">
-        <v>42.51</v>
+        <v>43.79</v>
       </c>
       <c r="F74" t="n">
-        <v>22109</v>
+        <v>8223</v>
       </c>
       <c r="G74" t="n">
-        <v>-56539.52697818483</v>
+        <v>-39180.8166881449</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>42.51</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3244,38 +3308,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.99</v>
+        <v>43.21</v>
       </c>
       <c r="C75" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D75" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E75" t="n">
-        <v>42.99</v>
+        <v>41.84</v>
       </c>
       <c r="F75" t="n">
-        <v>429</v>
+        <v>50753.2746</v>
       </c>
       <c r="G75" t="n">
-        <v>-56539.52697818483</v>
+        <v>-89934.0912881449</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>42.99</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3286,38 +3344,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="C76" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D76" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E76" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>78</v>
       </c>
       <c r="G76" t="n">
-        <v>-56539.52697818483</v>
+        <v>-89934.0912881449</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>42.99</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3328,38 +3380,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>42.99</v>
+        <v>42.9</v>
       </c>
       <c r="C77" t="n">
-        <v>42.99</v>
+        <v>42.09</v>
       </c>
       <c r="D77" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E77" t="n">
-        <v>42.99</v>
+        <v>42.09</v>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>17267.0828</v>
       </c>
       <c r="G77" t="n">
-        <v>-56539.52697818483</v>
+        <v>-107201.1740881449</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>42.99</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3416,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="C78" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D78" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="E78" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>5146</v>
       </c>
       <c r="G78" t="n">
-        <v>-56539.52697818483</v>
+        <v>-102055.1740881449</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3395,11 +3441,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3410,22 +3452,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="C79" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D79" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E79" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="F79" t="n">
-        <v>2400</v>
+        <v>1627</v>
       </c>
       <c r="G79" t="n">
-        <v>-56539.52697818483</v>
+        <v>-102055.1740881449</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3435,11 +3477,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3450,22 +3488,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="C80" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="D80" t="n">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="E80" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="F80" t="n">
-        <v>2015</v>
+        <v>6058</v>
       </c>
       <c r="G80" t="n">
-        <v>-54524.52697818483</v>
+        <v>-102055.1740881449</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3475,11 +3513,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3524,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="E81" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="F81" t="n">
-        <v>2621</v>
+        <v>400</v>
       </c>
       <c r="G81" t="n">
-        <v>-54524.52697818483</v>
+        <v>-102055.1740881449</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3515,11 +3549,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3560,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>42.8</v>
+        <v>43.48</v>
       </c>
       <c r="C82" t="n">
-        <v>43.3</v>
+        <v>43.58</v>
       </c>
       <c r="D82" t="n">
-        <v>43.3</v>
+        <v>43.58</v>
       </c>
       <c r="E82" t="n">
-        <v>42.8</v>
+        <v>43.48</v>
       </c>
       <c r="F82" t="n">
-        <v>1834</v>
+        <v>1642</v>
       </c>
       <c r="G82" t="n">
-        <v>-52690.52697818483</v>
+        <v>-103697.1740881449</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3555,11 +3585,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3596,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>42.5</v>
+        <v>43.06</v>
       </c>
       <c r="C83" t="n">
-        <v>42.5</v>
+        <v>43.28</v>
       </c>
       <c r="D83" t="n">
-        <v>42.5</v>
+        <v>43.29</v>
       </c>
       <c r="E83" t="n">
-        <v>42.5</v>
+        <v>43.06</v>
       </c>
       <c r="F83" t="n">
-        <v>1669.3262</v>
+        <v>2690</v>
       </c>
       <c r="G83" t="n">
-        <v>-54359.85317818484</v>
+        <v>-106387.1740881449</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3595,11 +3621,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3610,22 +3632,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43.18</v>
+        <v>43.29</v>
       </c>
       <c r="C84" t="n">
-        <v>43.18</v>
+        <v>43.7</v>
       </c>
       <c r="D84" t="n">
-        <v>43.18</v>
+        <v>43.7</v>
       </c>
       <c r="E84" t="n">
-        <v>43.18</v>
+        <v>43.29</v>
       </c>
       <c r="F84" t="n">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="G84" t="n">
-        <v>-54319.85317818484</v>
+        <v>-105923.1740881449</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3635,11 +3657,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3668,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>43.06</v>
+        <v>43.69</v>
       </c>
       <c r="C85" t="n">
-        <v>43.17</v>
+        <v>43.68</v>
       </c>
       <c r="D85" t="n">
-        <v>43.17</v>
+        <v>43.69</v>
       </c>
       <c r="E85" t="n">
-        <v>43.06</v>
+        <v>43.68</v>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="n">
-        <v>-55119.85317818484</v>
+        <v>-107923.1740881449</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3675,11 +3693,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3690,38 +3704,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>43.3</v>
+        <v>42.8</v>
       </c>
       <c r="C86" t="n">
-        <v>43.3</v>
+        <v>43.79</v>
       </c>
       <c r="D86" t="n">
-        <v>43.3</v>
+        <v>43.79</v>
       </c>
       <c r="E86" t="n">
-        <v>43.3</v>
+        <v>42.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1063</v>
+        <v>22624</v>
       </c>
       <c r="G86" t="n">
-        <v>-54056.85317818484</v>
+        <v>-85299.17408814491</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>43.17</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3732,38 +3740,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>43.3</v>
+        <v>43.49</v>
       </c>
       <c r="C87" t="n">
-        <v>43.3</v>
+        <v>43.49</v>
       </c>
       <c r="D87" t="n">
-        <v>43.3</v>
+        <v>43.49</v>
       </c>
       <c r="E87" t="n">
-        <v>43.3</v>
+        <v>43.49</v>
       </c>
       <c r="F87" t="n">
-        <v>861</v>
+        <v>6636.6426</v>
       </c>
       <c r="G87" t="n">
-        <v>-54056.85317818484</v>
+        <v>-91935.81668814491</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +3776,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="C88" t="n">
-        <v>43.3</v>
+        <v>43.88</v>
       </c>
       <c r="D88" t="n">
-        <v>43.3</v>
+        <v>43.88</v>
       </c>
       <c r="E88" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>29.66</v>
       </c>
       <c r="G88" t="n">
-        <v>-54056.85317818484</v>
+        <v>-91906.15668814491</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3799,11 +3801,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3814,22 +3812,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>43.4</v>
+        <v>42.8</v>
       </c>
       <c r="C89" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="D89" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="E89" t="n">
-        <v>43.4</v>
+        <v>42.8</v>
       </c>
       <c r="F89" t="n">
-        <v>400</v>
+        <v>5182</v>
       </c>
       <c r="G89" t="n">
-        <v>-53656.85317818484</v>
+        <v>-97088.15668814491</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3839,11 +3837,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3854,22 +3848,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="C90" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="E90" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>20199.3581</v>
       </c>
       <c r="G90" t="n">
-        <v>-54856.85317818484</v>
+        <v>-97088.15668814491</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3879,11 +3873,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +3884,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>43.3</v>
+        <v>43.19</v>
       </c>
       <c r="C91" t="n">
-        <v>43.4</v>
+        <v>43.19</v>
       </c>
       <c r="D91" t="n">
-        <v>43.4</v>
+        <v>43.19</v>
       </c>
       <c r="E91" t="n">
-        <v>43.3</v>
+        <v>43.19</v>
       </c>
       <c r="F91" t="n">
-        <v>7325</v>
+        <v>382</v>
       </c>
       <c r="G91" t="n">
-        <v>-47531.85317818484</v>
+        <v>-96706.15668814491</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3919,11 +3909,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +3920,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="C92" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="D92" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="E92" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="F92" t="n">
-        <v>1600</v>
+        <v>105.2226</v>
       </c>
       <c r="G92" t="n">
-        <v>-47531.85317818484</v>
+        <v>-96811.3792881449</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3959,11 +3945,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3974,22 +3956,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>43.5</v>
+        <v>43.19</v>
       </c>
       <c r="C93" t="n">
-        <v>43.79</v>
+        <v>43.49</v>
       </c>
       <c r="D93" t="n">
-        <v>43.79</v>
+        <v>43.49</v>
       </c>
       <c r="E93" t="n">
-        <v>43.49</v>
+        <v>43.19</v>
       </c>
       <c r="F93" t="n">
-        <v>7018</v>
+        <v>8006.392923913543</v>
       </c>
       <c r="G93" t="n">
-        <v>-40513.85317818484</v>
+        <v>-88804.98636423136</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3999,11 +3981,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3992,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>43.79</v>
+        <v>43</v>
       </c>
       <c r="C94" t="n">
-        <v>43.89</v>
+        <v>43</v>
       </c>
       <c r="D94" t="n">
-        <v>43.89</v>
+        <v>43</v>
       </c>
       <c r="E94" t="n">
-        <v>43.79</v>
+        <v>43</v>
       </c>
       <c r="F94" t="n">
-        <v>10028.031</v>
+        <v>23.25581395348837</v>
       </c>
       <c r="G94" t="n">
-        <v>-30485.82217818483</v>
+        <v>-88828.24217818484</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4039,11 +4017,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4054,22 +4028,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>43.89</v>
+        <v>42.8</v>
       </c>
       <c r="C95" t="n">
-        <v>44.29</v>
+        <v>42.61</v>
       </c>
       <c r="D95" t="n">
-        <v>44.29</v>
+        <v>42.8</v>
       </c>
       <c r="E95" t="n">
-        <v>43.89</v>
+        <v>42.61</v>
       </c>
       <c r="F95" t="n">
-        <v>873.134</v>
+        <v>8029.6487</v>
       </c>
       <c r="G95" t="n">
-        <v>-29612.68817818484</v>
+        <v>-96857.89087818484</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4079,11 +4053,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4094,22 +4064,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44.29</v>
+        <v>42.7</v>
       </c>
       <c r="C96" t="n">
-        <v>44.29</v>
+        <v>42.5</v>
       </c>
       <c r="D96" t="n">
-        <v>44.29</v>
+        <v>42.7</v>
       </c>
       <c r="E96" t="n">
-        <v>44.29</v>
+        <v>42.5</v>
       </c>
       <c r="F96" t="n">
-        <v>97.08737864077671</v>
+        <v>32864.2297</v>
       </c>
       <c r="G96" t="n">
-        <v>-29612.68817818484</v>
+        <v>-129722.1205781848</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4119,11 +4089,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4134,22 +4100,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>43.8</v>
+        <v>42.6</v>
       </c>
       <c r="C97" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
       </c>
       <c r="D97" t="n">
-        <v>43.8</v>
+        <v>42.6</v>
       </c>
       <c r="E97" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
       </c>
       <c r="F97" t="n">
-        <v>2325</v>
+        <v>2242.4611</v>
       </c>
       <c r="G97" t="n">
-        <v>-31937.68817818484</v>
+        <v>-129722.1205781848</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4159,11 +4125,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4174,22 +4136,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="C98" t="n">
-        <v>44.29</v>
+        <v>42.9</v>
       </c>
       <c r="D98" t="n">
-        <v>44.29</v>
+        <v>42.99</v>
       </c>
       <c r="E98" t="n">
-        <v>43.5</v>
+        <v>42.9</v>
       </c>
       <c r="F98" t="n">
-        <v>9727.064</v>
+        <v>504</v>
       </c>
       <c r="G98" t="n">
-        <v>-22210.62417818484</v>
+        <v>-129218.1205781848</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4199,11 +4161,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4172,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>43.7</v>
+        <v>42.8</v>
       </c>
       <c r="C99" t="n">
-        <v>43.7</v>
+        <v>42.8</v>
       </c>
       <c r="D99" t="n">
-        <v>43.7</v>
+        <v>42.8</v>
       </c>
       <c r="E99" t="n">
-        <v>43.7</v>
+        <v>42.8</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>-24210.62417818484</v>
+        <v>-129618.1205781848</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4239,11 +4197,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4208,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.2</v>
+        <v>42.7</v>
       </c>
       <c r="C100" t="n">
-        <v>44.2</v>
+        <v>42.88</v>
       </c>
       <c r="D100" t="n">
-        <v>44.2</v>
+        <v>42.88</v>
       </c>
       <c r="E100" t="n">
-        <v>44.2</v>
+        <v>42.09</v>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>52154.7612</v>
       </c>
       <c r="G100" t="n">
-        <v>-22210.62417818484</v>
+        <v>-77463.35937818483</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4279,11 +4233,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4294,22 +4244,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>44.2</v>
+        <v>42.77</v>
       </c>
       <c r="C101" t="n">
-        <v>44.29</v>
+        <v>42.77</v>
       </c>
       <c r="D101" t="n">
-        <v>44.29</v>
+        <v>42.77</v>
       </c>
       <c r="E101" t="n">
-        <v>44.2</v>
+        <v>42.77</v>
       </c>
       <c r="F101" t="n">
-        <v>5439</v>
+        <v>1139.2117</v>
       </c>
       <c r="G101" t="n">
-        <v>-16771.62417818484</v>
+        <v>-78602.57107818483</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4319,11 +4269,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4334,68 +4280,64 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.29</v>
+        <v>42.51</v>
       </c>
       <c r="C102" t="n">
-        <v>44.19</v>
+        <v>42.51</v>
       </c>
       <c r="D102" t="n">
-        <v>44.29</v>
+        <v>42.51</v>
       </c>
       <c r="E102" t="n">
-        <v>44.19</v>
+        <v>42.51</v>
       </c>
       <c r="F102" t="n">
-        <v>2704.0902</v>
+        <v>45.9559</v>
       </c>
       <c r="G102" t="n">
-        <v>-19475.71437818484</v>
+        <v>-78648.52697818483</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>1.123326959847036</v>
-      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.7</v>
+        <v>42.51</v>
       </c>
       <c r="C103" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="D103" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="E103" t="n">
-        <v>43.7</v>
+        <v>42.51</v>
       </c>
       <c r="F103" t="n">
-        <v>3600</v>
+        <v>22109</v>
       </c>
       <c r="G103" t="n">
-        <v>-23075.71437818484</v>
+        <v>-56539.52697818483</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4410,22 +4352,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="C104" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="D104" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="E104" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="F104" t="n">
-        <v>3600</v>
+        <v>429</v>
       </c>
       <c r="G104" t="n">
-        <v>-23075.71437818484</v>
+        <v>-56539.52697818483</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4446,22 +4388,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="C105" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="D105" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="E105" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="F105" t="n">
         <v>800</v>
       </c>
       <c r="G105" t="n">
-        <v>-23075.71437818484</v>
+        <v>-56539.52697818483</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4482,22 +4424,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="C106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="D106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="E106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>-23075.71437818484</v>
+        <v>-56539.52697818483</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4513,6 +4455,1050 @@
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="C107" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="D107" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="E107" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="F107" t="n">
+        <v>800</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-56539.52697818483</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="C108" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="D108" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="E108" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-56539.52697818483</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="C109" t="n">
+        <v>43</v>
+      </c>
+      <c r="D109" t="n">
+        <v>43</v>
+      </c>
+      <c r="E109" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-54524.52697818483</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>43</v>
+      </c>
+      <c r="D110" t="n">
+        <v>43</v>
+      </c>
+      <c r="E110" t="n">
+        <v>43</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-54524.52697818483</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1834</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-52690.52697818483</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1669.3262</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-54359.85317818484</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="C113" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="D113" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="E113" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="F113" t="n">
+        <v>40</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-54319.85317818484</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="C114" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="D114" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="E114" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-55119.85317818484</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-54056.85317818484</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>861</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-54056.85317818484</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-54056.85317818484</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-53656.85317818484</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-54856.85317818484</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7325</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-47531.85317818484</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-47531.85317818484</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="D122" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="E122" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7018</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-40513.85317818484</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="C123" t="n">
+        <v>43.89</v>
+      </c>
+      <c r="D123" t="n">
+        <v>43.89</v>
+      </c>
+      <c r="E123" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10028.031</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-30485.82217818483</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>43.89</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E124" t="n">
+        <v>43.89</v>
+      </c>
+      <c r="F124" t="n">
+        <v>873.134</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-29612.68817818484</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="D125" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E125" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="F125" t="n">
+        <v>97.08737864077671</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-29612.68817818484</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2325</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-31937.68817818484</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E127" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9727.064</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-22210.62417818484</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-24210.62417818484</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-22210.62417818484</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="D130" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E130" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5439</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-16771.62417818484</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="D131" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E131" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2704.0902</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-19475.71437818484</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-23075.71437818484</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-23075.71437818484</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>800</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-23075.71437818484</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>800</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-23075.71437818484</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-165768.3308</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-164790.3308</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="J3" t="n">
         <v>41.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-155667.3308</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>42.34</v>
       </c>
       <c r="J4" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="K4" t="n">
         <v>41.7</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-155667.3308</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>42.56</v>
       </c>
       <c r="J5" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K5" t="n">
         <v>41.7</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-155667.3308</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.56</v>
       </c>
       <c r="J6" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K6" t="n">
         <v>41.7</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-151967.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>42.56</v>
       </c>
       <c r="J7" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K7" t="n">
         <v>41.7</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-89545.2398</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="J8" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="K8" t="n">
         <v>41.7</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-94201.2398</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.09</v>
       </c>
       <c r="J9" t="n">
-        <v>43.09</v>
-      </c>
-      <c r="K9" t="n">
         <v>41.7</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>-105488.2398</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>42.28</v>
       </c>
       <c r="J10" t="n">
-        <v>42.28</v>
-      </c>
-      <c r="K10" t="n">
         <v>41.7</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>-91545.2398</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K11" t="n">
         <v>41.7</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>-87388.2398</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K12" t="n">
         <v>41.7</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>-94349.4816</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="J13" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K13" t="n">
         <v>41.7</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="J14" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K14" t="n">
         <v>41.7</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>-94225.4816</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="J15" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="K15" t="n">
         <v>41.7</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,24 +1013,23 @@
         <v>-18207.06539999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="J16" t="n">
         <v>41.7</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1102,24 +1054,23 @@
         <v>-23018.73279999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="J17" t="n">
         <v>41.7</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,24 +1095,23 @@
         <v>-21874.73279999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+        <v>42.68</v>
+      </c>
+      <c r="J18" t="n">
         <v>41.7</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,24 +1136,23 @@
         <v>-24507.73279999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="J19" t="n">
         <v>41.7</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1230,22 +1179,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>41.7</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1270,24 +1216,23 @@
         <v>-23522.01279999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="J21" t="n">
         <v>41.7</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,24 +1257,23 @@
         <v>-24692.76839999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="J22" t="n">
         <v>41.7</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,24 +1298,23 @@
         <v>-11675.74899999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="J23" t="n">
         <v>41.7</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,24 +1339,23 @@
         <v>5760.811000000011</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="J24" t="n">
         <v>41.7</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,26 +1380,23 @@
         <v>112268.7238</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>43.36</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36</v>
-      </c>
-      <c r="K25" t="n">
         <v>41.7</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,22 +1423,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>41.7</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1526,22 +1462,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>41.7</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1568,22 +1501,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>41.7</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1608,24 +1538,23 @@
         <v>-10385.63349999997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>41.7</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L29" t="n">
+        <v>1.057350119904077</v>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1.020623501199041</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1652,22 +1581,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1692,24 +1612,15 @@
         <v>20920.56490000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1734,24 +1645,15 @@
         <v>16660.74880000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1776,24 +1678,15 @@
         <v>-3711.838299999978</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1818,24 +1711,15 @@
         <v>4018.030000000022</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1860,24 +1744,15 @@
         <v>6909.075400000022</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1904,22 +1779,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1946,22 +1812,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1988,24 +1845,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07773381294964</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.020623501199041</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2032,16 +1878,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2068,16 +1911,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2102,18 +1942,15 @@
         <v>28658.1355118551</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2138,18 +1975,15 @@
         <v>31413.9064118551</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2174,18 +2008,15 @@
         <v>27906.4505118551</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2210,18 +2041,15 @@
         <v>20009.69491185509</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2248,16 +2076,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2284,16 +2109,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2320,16 +2142,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2356,16 +2175,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2392,16 +2208,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2428,16 +2241,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2464,16 +2274,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2500,16 +2307,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2536,16 +2340,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2572,16 +2373,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2608,16 +2406,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2644,16 +2439,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2680,16 +2472,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2716,16 +2505,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2752,16 +2538,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2788,16 +2571,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2824,16 +2604,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2860,16 +2637,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2896,16 +2670,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2930,18 +2701,15 @@
         <v>2179.197111855101</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2968,16 +2736,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3002,18 +2767,15 @@
         <v>2204.197111855101</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3040,16 +2802,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3076,16 +2835,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3112,16 +2868,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3148,16 +2901,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3184,16 +2934,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3220,16 +2967,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3256,16 +3000,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3290,18 +3031,15 @@
         <v>-39180.8166881449</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3328,16 +3066,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3364,16 +3099,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3400,16 +3132,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3436,16 +3165,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3472,16 +3198,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,16 +3231,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3544,16 +3264,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3580,16 +3297,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3616,16 +3330,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3652,16 +3363,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3688,16 +3396,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,16 +3429,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3760,16 +3462,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3796,16 +3495,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3832,16 +3528,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3868,16 +3561,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3904,16 +3594,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,16 +3627,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3976,16 +3660,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4012,16 +3693,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4048,16 +3726,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4084,16 +3759,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4120,16 +3792,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4156,16 +3825,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4192,16 +3858,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4228,16 +3891,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4264,16 +3924,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4300,16 +3957,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4336,16 +3990,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4372,16 +4023,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4408,16 +4056,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4444,16 +4089,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4480,16 +4122,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4516,16 +4155,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4552,16 +4188,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4588,16 +4221,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4624,16 +4254,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4660,16 +4287,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4696,16 +4320,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4732,16 +4353,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4768,16 +4386,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4804,16 +4419,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4840,16 +4452,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4876,16 +4485,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4912,16 +4518,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4946,18 +4549,15 @@
         <v>-47531.85317818484</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4982,18 +4582,15 @@
         <v>-47531.85317818484</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5018,18 +4615,15 @@
         <v>-40513.85317818484</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5054,18 +4648,15 @@
         <v>-30485.82217818483</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5090,18 +4681,15 @@
         <v>-29612.68817818484</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5126,18 +4714,15 @@
         <v>-29612.68817818484</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5162,18 +4747,15 @@
         <v>-31937.68817818484</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5198,18 +4780,15 @@
         <v>-22210.62417818484</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5234,18 +4813,15 @@
         <v>-24210.62417818484</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5272,16 +4848,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5306,18 +4879,15 @@
         <v>-16771.62417818484</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5342,18 +4912,15 @@
         <v>-19475.71437818484</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5378,18 +4945,15 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5414,18 +4978,15 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5450,18 +5011,15 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5486,20 +5044,17 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-165768.3308</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-164790.3308</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>41.7</v>
@@ -521,7 +521,7 @@
         <v>-155667.3308</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>42.34</v>
@@ -562,7 +562,7 @@
         <v>-155667.3308</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>42.56</v>
@@ -603,7 +603,7 @@
         <v>-155667.3308</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>42.56</v>
@@ -644,7 +644,7 @@
         <v>-151967.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>42.56</v>
@@ -685,7 +685,7 @@
         <v>-89545.2398</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>42.6</v>
@@ -726,11 +726,9 @@
         <v>-94201.2398</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>41.7</v>
       </c>
@@ -767,11 +765,9 @@
         <v>-105488.2398</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>41.7</v>
       </c>
@@ -808,11 +804,9 @@
         <v>-91545.2398</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>41.7</v>
       </c>
@@ -849,11 +843,9 @@
         <v>-87388.2398</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>41.7</v>
       </c>
@@ -890,7 +882,7 @@
         <v>-94349.4816</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>42.1</v>
@@ -931,7 +923,7 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>41.5</v>
@@ -972,11 +964,9 @@
         <v>-94225.4816</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>41.7</v>
       </c>
@@ -1013,7 +1003,7 @@
         <v>-18207.06539999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>42.7</v>
@@ -1054,11 +1044,9 @@
         <v>-23018.73279999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>41.7</v>
       </c>
@@ -1095,11 +1083,9 @@
         <v>-21874.73279999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>42.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>41.7</v>
       </c>
@@ -1136,11 +1122,9 @@
         <v>-24507.73279999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>41.7</v>
       </c>
@@ -1177,9 +1161,11 @@
         <v>-23522.01279999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J20" t="n">
         <v>41.7</v>
       </c>
@@ -1216,7 +1202,7 @@
         <v>-23522.01279999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>42.9</v>
@@ -1257,7 +1243,7 @@
         <v>-24692.76839999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>42.9</v>
@@ -1298,7 +1284,7 @@
         <v>-11675.74899999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>42.89</v>
@@ -1339,7 +1325,7 @@
         <v>5760.811000000011</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>43.35</v>
@@ -1380,7 +1366,7 @@
         <v>112268.7238</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>43.36</v>
@@ -1538,7 +1524,7 @@
         <v>-10385.63349999997</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
@@ -1546,15 +1532,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.057350119904077</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.020623501199041</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,8 +1566,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1602,17 @@
         <v>20920.56490000002</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1645,11 +1641,17 @@
         <v>16660.74880000002</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1680,17 @@
         <v>-3711.838299999978</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1719,17 @@
         <v>4018.030000000022</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1744,11 +1758,17 @@
         <v>6909.075400000022</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1780,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1813,8 +1839,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1846,8 +1878,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1879,8 +1917,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1912,8 +1956,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1942,11 +1992,17 @@
         <v>28658.1355118551</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1975,11 +2031,17 @@
         <v>31413.9064118551</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2008,11 +2070,17 @@
         <v>27906.4505118551</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2041,11 +2109,17 @@
         <v>20009.69491185509</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2077,8 +2151,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2110,8 +2190,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2140,15 +2226,23 @@
         <v>20009.69491185509</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>1.05015587529976</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.020623501199041</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2272,7 +2366,7 @@
         <v>39612.0612118551</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2305,7 +2399,7 @@
         <v>45526.5762118551</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2338,7 +2432,7 @@
         <v>77353.32741185511</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2371,7 +2465,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2404,7 +2498,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2437,7 +2531,7 @@
         <v>67142.7933118551</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2470,7 +2564,7 @@
         <v>35746.3212118551</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2503,7 +2597,7 @@
         <v>35746.3212118551</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2569,7 +2663,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2701,7 +2795,7 @@
         <v>2179.197111855101</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2767,7 +2861,7 @@
         <v>2204.197111855101</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2800,7 +2894,7 @@
         <v>-20366.0664881449</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2833,7 +2927,7 @@
         <v>-8255.066488144897</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2866,7 +2960,7 @@
         <v>-12971.6248881449</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2899,7 +2993,7 @@
         <v>-40299.5373881449</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2932,7 +3026,7 @@
         <v>-62740.1346881449</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2965,7 +3059,7 @@
         <v>-47380.1187881449</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2998,7 +3092,7 @@
         <v>-47403.8166881449</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3031,7 +3125,7 @@
         <v>-39180.8166881449</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3064,7 +3158,7 @@
         <v>-89934.0912881449</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3097,7 +3191,7 @@
         <v>-89934.0912881449</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3130,7 +3224,7 @@
         <v>-107201.1740881449</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3163,7 +3257,7 @@
         <v>-102055.1740881449</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3229,7 +3323,7 @@
         <v>-102055.1740881449</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4549,7 +4643,7 @@
         <v>-47531.85317818484</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4582,7 +4676,7 @@
         <v>-47531.85317818484</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4615,7 +4709,7 @@
         <v>-40513.85317818484</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4648,7 +4742,7 @@
         <v>-30485.82217818483</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4681,7 +4775,7 @@
         <v>-29612.68817818484</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4714,7 +4808,7 @@
         <v>-29612.68817818484</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4747,7 +4841,7 @@
         <v>-31937.68817818484</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4780,7 +4874,7 @@
         <v>-22210.62417818484</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4813,7 +4907,7 @@
         <v>-24210.62417818484</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4879,7 +4973,7 @@
         <v>-16771.62417818484</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4912,7 +5006,7 @@
         <v>-19475.71437818484</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4945,7 +5039,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4978,7 +5072,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5011,7 +5105,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5044,7 +5138,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5055,6 +5149,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -603,19 +603,11 @@
         <v>-155667.3308</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -650,13 +642,9 @@
         <v>42.56</v>
       </c>
       <c r="J7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.56</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,17 +673,15 @@
         <v>-89545.2398</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -730,7 +716,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -769,7 +755,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -808,7 +794,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -847,7 +833,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -882,13 +868,11 @@
         <v>-94349.4816</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -923,13 +907,11 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -968,7 +950,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1003,13 +985,11 @@
         <v>-18207.06539999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1048,7 +1028,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1087,7 +1067,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1126,7 +1106,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1161,13 +1141,11 @@
         <v>-23522.01279999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1202,13 +1180,11 @@
         <v>-23522.01279999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1243,13 +1219,11 @@
         <v>-24692.76839999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1284,13 +1258,11 @@
         <v>-11675.74899999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1325,13 +1297,11 @@
         <v>5760.811000000011</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1366,13 +1336,11 @@
         <v>112268.7238</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>43.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1411,7 +1379,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1450,7 +1418,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1489,7 +1457,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1528,7 +1496,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1567,7 +1535,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1606,7 +1574,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1645,7 +1613,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1684,7 +1652,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1723,7 +1691,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1762,7 +1730,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1801,7 +1769,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1840,7 +1808,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1879,7 +1847,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1918,7 +1886,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1957,7 +1925,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1996,7 +1964,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2035,7 +2003,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2074,7 +2042,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2113,7 +2081,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2152,7 +2120,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2191,7 +2159,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2226,23 +2194,21 @@
         <v>20009.69491185509</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>41.7</v>
+        <v>42.56</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.05015587529976</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.020623501199041</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,8 +2236,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2275,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2314,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,12 +2353,20 @@
         <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>1.052330827067669</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.02158273381295</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2465,7 +2457,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2531,7 +2523,7 @@
         <v>67142.7933118551</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2630,7 +2622,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2696,7 +2688,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2861,7 +2853,7 @@
         <v>2204.197111855101</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2894,7 +2886,7 @@
         <v>-20366.0664881449</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2927,7 +2919,7 @@
         <v>-8255.066488144897</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2960,7 +2952,7 @@
         <v>-12971.6248881449</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2993,7 +2985,7 @@
         <v>-40299.5373881449</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3026,7 +3018,7 @@
         <v>-62740.1346881449</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3059,7 +3051,7 @@
         <v>-47380.1187881449</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3092,7 +3084,7 @@
         <v>-47403.8166881449</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3125,7 +3117,7 @@
         <v>-39180.8166881449</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3158,7 +3150,7 @@
         <v>-89934.0912881449</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3191,7 +3183,7 @@
         <v>-89934.0912881449</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3224,7 +3216,7 @@
         <v>-107201.1740881449</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3257,7 +3249,7 @@
         <v>-102055.1740881449</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3323,7 +3315,7 @@
         <v>-102055.1740881449</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5149,6 +5141,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -603,11 +603,19 @@
         <v>-155667.3308</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,9 +650,13 @@
         <v>42.56</v>
       </c>
       <c r="J7" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>41.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,15 +685,17 @@
         <v>-89545.2398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J8" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -716,7 +730,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,7 +769,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -790,11 +804,13 @@
         <v>-91545.2398</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J11" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -833,7 +849,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,7 +888,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -907,11 +923,13 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J14" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -950,7 +968,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -989,7 +1007,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1028,7 +1046,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1067,7 +1085,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,7 +1124,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1145,7 +1163,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1184,7 +1202,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,7 +1241,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,7 +1280,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1301,7 +1319,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1336,11 +1354,13 @@
         <v>112268.7238</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>43.36</v>
+      </c>
       <c r="J25" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1379,7 +1399,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1418,7 +1438,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1457,7 +1477,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1496,7 +1516,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1535,7 +1555,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1574,7 +1594,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1613,7 +1633,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1652,7 +1672,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1691,7 +1711,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1730,7 +1750,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1769,7 +1789,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1808,7 +1828,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1847,7 +1867,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1886,7 +1906,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1921,21 +1941,23 @@
         <v>30898.1355118551</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>42.56</v>
+        <v>41.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1.100515587529976</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.020623501199041</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1960,17 +1982,11 @@
         <v>28658.1355118551</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1999,17 +2015,11 @@
         <v>31413.9064118551</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2041,14 +2051,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2080,14 +2084,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2119,14 +2117,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2158,14 +2150,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2197,14 +2183,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +2216,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2275,14 +2249,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2314,14 +2282,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2350,23 +2312,15 @@
         <v>39612.0612118551</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.052330827067669</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.02158273381295</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2391,7 +2345,7 @@
         <v>45526.5762118551</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2424,7 +2378,7 @@
         <v>77353.32741185511</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2457,7 +2411,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2523,7 +2477,7 @@
         <v>67142.7933118551</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2622,7 +2576,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2688,7 +2642,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -4998,7 +4952,7 @@
         <v>-19475.71437818484</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5031,7 +4985,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5064,7 +5018,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest PAY.xlsx
+++ b/BackTest/2020-01-12 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1229.9476</v>
       </c>
       <c r="G2" t="n">
-        <v>-165768.3308</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>978</v>
       </c>
       <c r="G3" t="n">
-        <v>-164790.3308</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>41.7</v>
       </c>
       <c r="I3" t="n">
         <v>41.7</v>
       </c>
-      <c r="J3" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>9123</v>
       </c>
       <c r="G4" t="n">
-        <v>-155667.3308</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>42.34</v>
       </c>
       <c r="I4" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="J4" t="n">
         <v>41.7</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>412.7854</v>
       </c>
       <c r="G5" t="n">
-        <v>-155667.3308</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>42.56</v>
       </c>
       <c r="I5" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="J5" t="n">
         <v>41.7</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>5451.0218</v>
       </c>
       <c r="G6" t="n">
-        <v>-155667.3308</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>42.56</v>
       </c>
       <c r="I6" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="J6" t="n">
         <v>41.7</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>3700</v>
       </c>
       <c r="G7" t="n">
-        <v>-151967.3308</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>42.56</v>
       </c>
       <c r="I7" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="J7" t="n">
         <v>41.7</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>62422.091</v>
       </c>
       <c r="G8" t="n">
-        <v>-89545.2398</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>42.6</v>
       </c>
       <c r="I8" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="J8" t="n">
         <v>41.7</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,24 +697,23 @@
         <v>4656</v>
       </c>
       <c r="G9" t="n">
-        <v>-94201.2398</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="I9" t="n">
         <v>41.7</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,24 +735,23 @@
         <v>11287</v>
       </c>
       <c r="G10" t="n">
-        <v>-105488.2398</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.7</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +773,23 @@
         <v>13943</v>
       </c>
       <c r="G11" t="n">
-        <v>-91545.2398</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>41.8</v>
       </c>
       <c r="I11" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J11" t="n">
         <v>41.7</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,24 +811,23 @@
         <v>4157</v>
       </c>
       <c r="G12" t="n">
-        <v>-87388.2398</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I12" t="n">
         <v>41.7</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,24 +849,23 @@
         <v>6961.2418</v>
       </c>
       <c r="G13" t="n">
-        <v>-94349.4816</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="I13" t="n">
         <v>41.7</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,26 +887,21 @@
         <v>411</v>
       </c>
       <c r="G14" t="n">
-        <v>-93938.4816</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J14" t="n">
         <v>41.7</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,24 +923,21 @@
         <v>287</v>
       </c>
       <c r="G15" t="n">
-        <v>-94225.4816</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>41.7</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,24 +959,21 @@
         <v>76018.41620000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-18207.06539999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>41.7</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,24 +995,21 @@
         <v>4811.6674</v>
       </c>
       <c r="G17" t="n">
-        <v>-23018.73279999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>41.7</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,24 +1031,21 @@
         <v>1144</v>
       </c>
       <c r="G18" t="n">
-        <v>-21874.73279999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>41.7</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,24 +1067,21 @@
         <v>2633</v>
       </c>
       <c r="G19" t="n">
-        <v>-24507.73279999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>41.7</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1156,24 +1103,21 @@
         <v>985.72</v>
       </c>
       <c r="G20" t="n">
-        <v>-23522.01279999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>41.7</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1195,24 +1139,23 @@
         <v>167.604</v>
       </c>
       <c r="G21" t="n">
-        <v>-23522.01279999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I21" t="n">
         <v>41.7</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1234,24 +1177,21 @@
         <v>1170.7556</v>
       </c>
       <c r="G22" t="n">
-        <v>-24692.76839999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>41.7</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1273,24 +1213,21 @@
         <v>13017.0194</v>
       </c>
       <c r="G23" t="n">
-        <v>-11675.74899999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>41.7</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1312,24 +1249,21 @@
         <v>17436.56</v>
       </c>
       <c r="G24" t="n">
-        <v>5760.811000000011</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>41.7</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,26 +1285,21 @@
         <v>106507.9128</v>
       </c>
       <c r="G25" t="n">
-        <v>112268.7238</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>43.36</v>
-      </c>
-      <c r="J25" t="n">
         <v>41.7</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,24 +1321,21 @@
         <v>100573.3219</v>
       </c>
       <c r="G26" t="n">
-        <v>11695.40190000003</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>41.7</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1431,24 +1357,21 @@
         <v>3409.67</v>
       </c>
       <c r="G27" t="n">
-        <v>15105.07190000003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>41.7</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1470,24 +1393,21 @@
         <v>3493</v>
       </c>
       <c r="G28" t="n">
-        <v>18598.07190000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>41.7</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1509,24 +1429,21 @@
         <v>28983.7054</v>
       </c>
       <c r="G29" t="n">
-        <v>-10385.63349999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>41.7</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1548,24 +1465,21 @@
         <v>33922.3184</v>
       </c>
       <c r="G30" t="n">
-        <v>23536.68490000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>41.7</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1587,24 +1501,21 @@
         <v>2616.12</v>
       </c>
       <c r="G31" t="n">
-        <v>20920.56490000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>41.7</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1626,24 +1537,21 @@
         <v>4259.8161</v>
       </c>
       <c r="G32" t="n">
-        <v>16660.74880000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>41.7</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1665,24 +1573,21 @@
         <v>20372.5871</v>
       </c>
       <c r="G33" t="n">
-        <v>-3711.838299999978</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>41.7</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1704,24 +1609,21 @@
         <v>7729.8683</v>
       </c>
       <c r="G34" t="n">
-        <v>4018.030000000022</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>41.7</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1743,24 +1645,21 @@
         <v>2891.0454</v>
       </c>
       <c r="G35" t="n">
-        <v>6909.075400000022</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>41.7</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,24 +1681,23 @@
         <v>30076.73515928524</v>
       </c>
       <c r="G36" t="n">
-        <v>36985.81055928526</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>41.7</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K36" t="n">
+        <v>1.088764988009592</v>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.020623501199041</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1821,24 +1719,15 @@
         <v>30689.74754743016</v>
       </c>
       <c r="G37" t="n">
-        <v>6296.063011855098</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1860,24 +1749,15 @@
         <v>26184.066</v>
       </c>
       <c r="G38" t="n">
-        <v>6296.063011855098</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1899,24 +1779,15 @@
         <v>62267.61230823545</v>
       </c>
       <c r="G39" t="n">
-        <v>6296.063011855098</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,26 +1809,15 @@
         <v>24602.0725</v>
       </c>
       <c r="G40" t="n">
-        <v>30898.1355118551</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1.100515587529976</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.020623501199041</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1979,18 +1839,15 @@
         <v>2240</v>
       </c>
       <c r="G41" t="n">
-        <v>28658.1355118551</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,18 +1869,15 @@
         <v>2755.7709</v>
       </c>
       <c r="G42" t="n">
-        <v>31413.9064118551</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2045,18 +1899,15 @@
         <v>3507.4559</v>
       </c>
       <c r="G43" t="n">
-        <v>27906.4505118551</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2078,18 +1929,15 @@
         <v>7896.7556</v>
       </c>
       <c r="G44" t="n">
-        <v>20009.69491185509</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2111,18 +1959,15 @@
         <v>25738.9536</v>
       </c>
       <c r="G45" t="n">
-        <v>20009.69491185509</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2144,18 +1989,15 @@
         <v>26179.8473</v>
       </c>
       <c r="G46" t="n">
-        <v>20009.69491185509</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2177,18 +2019,15 @@
         <v>14003.6518</v>
       </c>
       <c r="G47" t="n">
-        <v>20009.69491185509</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2210,18 +2049,15 @@
         <v>62</v>
       </c>
       <c r="G48" t="n">
-        <v>20009.69491185509</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2243,18 +2079,15 @@
         <v>23352.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>43362.6664118551</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,18 +2109,15 @@
         <v>3916.0292</v>
       </c>
       <c r="G50" t="n">
-        <v>39446.6372118551</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2309,18 +2139,15 @@
         <v>165.424</v>
       </c>
       <c r="G51" t="n">
-        <v>39612.0612118551</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2342,18 +2169,15 @@
         <v>5914.515</v>
       </c>
       <c r="G52" t="n">
-        <v>45526.5762118551</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2375,18 +2199,15 @@
         <v>31826.7512</v>
       </c>
       <c r="G53" t="n">
-        <v>77353.32741185511</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,18 +2229,15 @@
         <v>2375.4182</v>
       </c>
       <c r="G54" t="n">
-        <v>74977.90921185511</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2441,18 +2259,15 @@
         <v>3000</v>
       </c>
       <c r="G55" t="n">
-        <v>74977.90921185511</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2474,18 +2289,15 @@
         <v>7835.1159</v>
       </c>
       <c r="G56" t="n">
-        <v>67142.7933118551</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2507,18 +2319,15 @@
         <v>31396.4721</v>
       </c>
       <c r="G57" t="n">
-        <v>35746.3212118551</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2540,18 +2349,15 @@
         <v>1623.9795</v>
       </c>
       <c r="G58" t="n">
-        <v>35746.3212118551</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2573,18 +2379,15 @@
         <v>40392.1852</v>
       </c>
       <c r="G59" t="n">
-        <v>-4645.863988144898</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2606,18 +2409,15 @@
         <v>25115</v>
       </c>
       <c r="G60" t="n">
-        <v>-4645.863988144898</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2639,18 +2439,15 @@
         <v>3562</v>
       </c>
       <c r="G61" t="n">
-        <v>-4645.863988144898</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,18 +2469,15 @@
         <v>508</v>
       </c>
       <c r="G62" t="n">
-        <v>-4137.863988144898</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2705,18 +2499,15 @@
         <v>23884.1044</v>
       </c>
       <c r="G63" t="n">
-        <v>-28021.9683881449</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2738,18 +2529,15 @@
         <v>30201.1655</v>
       </c>
       <c r="G64" t="n">
-        <v>2179.197111855101</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2771,18 +2559,15 @@
         <v>13691.0827</v>
       </c>
       <c r="G65" t="n">
-        <v>2179.197111855101</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2804,18 +2589,15 @@
         <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>2204.197111855101</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2837,18 +2619,15 @@
         <v>22570.2636</v>
       </c>
       <c r="G67" t="n">
-        <v>-20366.0664881449</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2870,18 +2649,15 @@
         <v>12111</v>
       </c>
       <c r="G68" t="n">
-        <v>-8255.066488144897</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2903,18 +2679,15 @@
         <v>4716.5584</v>
       </c>
       <c r="G69" t="n">
-        <v>-12971.6248881449</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,18 +2709,15 @@
         <v>27327.9125</v>
       </c>
       <c r="G70" t="n">
-        <v>-40299.5373881449</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2969,18 +2739,15 @@
         <v>22440.5973</v>
       </c>
       <c r="G71" t="n">
-        <v>-62740.1346881449</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3002,18 +2769,15 @@
         <v>15360.0159</v>
       </c>
       <c r="G72" t="n">
-        <v>-47380.1187881449</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3035,18 +2799,15 @@
         <v>23.6979</v>
       </c>
       <c r="G73" t="n">
-        <v>-47403.8166881449</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,18 +2829,15 @@
         <v>8223</v>
       </c>
       <c r="G74" t="n">
-        <v>-39180.8166881449</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3101,18 +2859,15 @@
         <v>50753.2746</v>
       </c>
       <c r="G75" t="n">
-        <v>-89934.0912881449</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3134,18 +2889,15 @@
         <v>78</v>
       </c>
       <c r="G76" t="n">
-        <v>-89934.0912881449</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3167,18 +2919,15 @@
         <v>17267.0828</v>
       </c>
       <c r="G77" t="n">
-        <v>-107201.1740881449</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3200,18 +2949,15 @@
         <v>5146</v>
       </c>
       <c r="G78" t="n">
-        <v>-102055.1740881449</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3233,18 +2979,15 @@
         <v>1627</v>
       </c>
       <c r="G79" t="n">
-        <v>-102055.1740881449</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,18 +3009,15 @@
         <v>6058</v>
       </c>
       <c r="G80" t="n">
-        <v>-102055.1740881449</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3299,18 +3039,15 @@
         <v>400</v>
       </c>
       <c r="G81" t="n">
-        <v>-102055.1740881449</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3332,18 +3069,15 @@
         <v>1642</v>
       </c>
       <c r="G82" t="n">
-        <v>-103697.1740881449</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3365,18 +3099,15 @@
         <v>2690</v>
       </c>
       <c r="G83" t="n">
-        <v>-106387.1740881449</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3398,18 +3129,15 @@
         <v>464</v>
       </c>
       <c r="G84" t="n">
-        <v>-105923.1740881449</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3431,18 +3159,15 @@
         <v>2000</v>
       </c>
       <c r="G85" t="n">
-        <v>-107923.1740881449</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3464,18 +3189,15 @@
         <v>22624</v>
       </c>
       <c r="G86" t="n">
-        <v>-85299.17408814491</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3497,18 +3219,15 @@
         <v>6636.6426</v>
       </c>
       <c r="G87" t="n">
-        <v>-91935.81668814491</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3530,18 +3249,15 @@
         <v>29.66</v>
       </c>
       <c r="G88" t="n">
-        <v>-91906.15668814491</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3563,18 +3279,15 @@
         <v>5182</v>
       </c>
       <c r="G89" t="n">
-        <v>-97088.15668814491</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3596,18 +3309,15 @@
         <v>20199.3581</v>
       </c>
       <c r="G90" t="n">
-        <v>-97088.15668814491</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3629,18 +3339,15 @@
         <v>382</v>
       </c>
       <c r="G91" t="n">
-        <v>-96706.15668814491</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3662,18 +3369,15 @@
         <v>105.2226</v>
       </c>
       <c r="G92" t="n">
-        <v>-96811.3792881449</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3695,18 +3399,15 @@
         <v>8006.392923913543</v>
       </c>
       <c r="G93" t="n">
-        <v>-88804.98636423136</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3728,18 +3429,15 @@
         <v>23.25581395348837</v>
       </c>
       <c r="G94" t="n">
-        <v>-88828.24217818484</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3761,18 +3459,15 @@
         <v>8029.6487</v>
       </c>
       <c r="G95" t="n">
-        <v>-96857.89087818484</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3794,18 +3489,15 @@
         <v>32864.2297</v>
       </c>
       <c r="G96" t="n">
-        <v>-129722.1205781848</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3827,18 +3519,15 @@
         <v>2242.4611</v>
       </c>
       <c r="G97" t="n">
-        <v>-129722.1205781848</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3860,18 +3549,15 @@
         <v>504</v>
       </c>
       <c r="G98" t="n">
-        <v>-129218.1205781848</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3893,18 +3579,15 @@
         <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>-129618.1205781848</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3926,18 +3609,15 @@
         <v>52154.7612</v>
       </c>
       <c r="G100" t="n">
-        <v>-77463.35937818483</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3959,18 +3639,15 @@
         <v>1139.2117</v>
       </c>
       <c r="G101" t="n">
-        <v>-78602.57107818483</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3992,18 +3669,15 @@
         <v>45.9559</v>
       </c>
       <c r="G102" t="n">
-        <v>-78648.52697818483</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4025,18 +3699,15 @@
         <v>22109</v>
       </c>
       <c r="G103" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4058,18 +3729,15 @@
         <v>429</v>
       </c>
       <c r="G104" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4091,18 +3759,15 @@
         <v>800</v>
       </c>
       <c r="G105" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4124,18 +3789,15 @@
         <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4157,18 +3819,15 @@
         <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4190,18 +3849,15 @@
         <v>2400</v>
       </c>
       <c r="G108" t="n">
-        <v>-56539.52697818483</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4223,18 +3879,15 @@
         <v>2015</v>
       </c>
       <c r="G109" t="n">
-        <v>-54524.52697818483</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4256,18 +3909,15 @@
         <v>2621</v>
       </c>
       <c r="G110" t="n">
-        <v>-54524.52697818483</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4289,18 +3939,15 @@
         <v>1834</v>
       </c>
       <c r="G111" t="n">
-        <v>-52690.52697818483</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4322,18 +3969,15 @@
         <v>1669.3262</v>
       </c>
       <c r="G112" t="n">
-        <v>-54359.85317818484</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4355,18 +3999,15 @@
         <v>40</v>
       </c>
       <c r="G113" t="n">
-        <v>-54319.85317818484</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4388,18 +4029,15 @@
         <v>800</v>
       </c>
       <c r="G114" t="n">
-        <v>-55119.85317818484</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4421,18 +4059,15 @@
         <v>1063</v>
       </c>
       <c r="G115" t="n">
-        <v>-54056.85317818484</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4454,18 +4089,15 @@
         <v>861</v>
       </c>
       <c r="G116" t="n">
-        <v>-54056.85317818484</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4487,18 +4119,15 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>-54056.85317818484</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4520,18 +4149,15 @@
         <v>400</v>
       </c>
       <c r="G118" t="n">
-        <v>-53656.85317818484</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4553,18 +4179,15 @@
         <v>1200</v>
       </c>
       <c r="G119" t="n">
-        <v>-54856.85317818484</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4586,18 +4209,15 @@
         <v>7325</v>
       </c>
       <c r="G120" t="n">
-        <v>-47531.85317818484</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4619,18 +4239,15 @@
         <v>1600</v>
       </c>
       <c r="G121" t="n">
-        <v>-47531.85317818484</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4652,18 +4269,15 @@
         <v>7018</v>
       </c>
       <c r="G122" t="n">
-        <v>-40513.85317818484</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4685,18 +4299,15 @@
         <v>10028.031</v>
       </c>
       <c r="G123" t="n">
-        <v>-30485.82217818483</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4718,18 +4329,15 @@
         <v>873.134</v>
       </c>
       <c r="G124" t="n">
-        <v>-29612.68817818484</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4751,18 +4359,15 @@
         <v>97.08737864077671</v>
       </c>
       <c r="G125" t="n">
-        <v>-29612.68817818484</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4784,18 +4389,15 @@
         <v>2325</v>
       </c>
       <c r="G126" t="n">
-        <v>-31937.68817818484</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4817,18 +4419,15 @@
         <v>9727.064</v>
       </c>
       <c r="G127" t="n">
-        <v>-22210.62417818484</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4850,18 +4449,15 @@
         <v>2000</v>
       </c>
       <c r="G128" t="n">
-        <v>-24210.62417818484</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4883,18 +4479,15 @@
         <v>2000</v>
       </c>
       <c r="G129" t="n">
-        <v>-22210.62417818484</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4916,18 +4509,15 @@
         <v>5439</v>
       </c>
       <c r="G130" t="n">
-        <v>-16771.62417818484</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4949,18 +4539,15 @@
         <v>2704.0902</v>
       </c>
       <c r="G131" t="n">
-        <v>-19475.71437818484</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4982,18 +4569,15 @@
         <v>3600</v>
       </c>
       <c r="G132" t="n">
-        <v>-23075.71437818484</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5015,18 +4599,15 @@
         <v>3600</v>
       </c>
       <c r="G133" t="n">
-        <v>-23075.71437818484</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5048,18 +4629,15 @@
         <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>-23075.71437818484</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5081,18 +4659,15 @@
         <v>800</v>
       </c>
       <c r="G135" t="n">
-        <v>-23075.71437818484</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
